--- a/news_data/news.xlsx
+++ b/news_data/news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipin\project3\TNsorflow-Nota\news_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1878971-4E79-4A8D-9789-336ED54F985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A2F80-6092-446C-A96F-EB0E866D65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A489F4A-51C5-4387-82AE-629B8F54C5B3}"/>
   </bookViews>
@@ -73,18 +73,6 @@
     <t>제2자유로 인근 '역주행' 추정 교통사고로 4명 사망</t>
   </si>
   <si>
-    <t>인제 승용차 사고, 가드레일 들이받아 일가족 4명 숨져</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.jtbc.co.kr/article/article.aspx?news_id=NB10732098</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://photo.jtbc.joins.com/news/2015/01/20/201501201014066049.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://thumb.mtstarnews.com/06/2015/02/2015020310402664978_1.jpg</t>
   </si>
   <si>
@@ -94,15 +82,6 @@
     <t>경북 구미서 음주 교통사고 발생, 4명 사망·1명 부상</t>
   </si>
   <si>
-    <t>https://img.asiatoday.co.kr/file/2015y/03m/24d/2015032401002729800147551.jpg</t>
-  </si>
-  <si>
-    <t>https://www.asiatoday.co.kr/view.php?key=20150324010014755</t>
-  </si>
-  <si>
-    <t>새벽 출근길, 경기 화성 도로서 SUV차량이 5명 덮쳐…2명 사망</t>
-  </si>
-  <si>
     <t>https://img3.yna.co.kr/photo/yna/YH/2015/03/31/PYH2015033110930006300_P4.jpg</t>
   </si>
   <si>
@@ -130,15 +109,6 @@
     <t>고성서 교통사고로 계모임 가던 11명 사상</t>
   </si>
   <si>
-    <t>http://image.sportsseoul.com/2015/10/15/news/20151015165919_seosan.jpg</t>
-  </si>
-  <si>
-    <t>http://www.sportsseoul.com/news/read/305159</t>
-  </si>
-  <si>
-    <t>서산 레미콘 사고에 강서구 교통사고까지…'신호위반의 위험성'</t>
-  </si>
-  <si>
     <t>'나들이' 마을주민 4명 교통사고 참변</t>
   </si>
   <si>
@@ -190,6 +160,39 @@
   </si>
   <si>
     <t>news_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.kbs.co.kr/data/news/2015/10/15/3164814_120.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.kbs.co.kr/news/view.do?ncd=3164814&amp;ref=A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레미콘이 신호 대기 승용차 덮쳐…주부 3명 참변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.news1.kr/system/photos/2015/6/30/1429665/article.jpg/dims/optimize</t>
+  </si>
+  <si>
+    <t>https://www.news1.kr/articles/?2306792</t>
+  </si>
+  <si>
+    <t>'이웃사촌' 70대 노부부 네쌍의 안타까운 이별여행</t>
+  </si>
+  <si>
+    <t>http://res.heraldm.com/phpwas/restmb_allidxmake.php?idx=5&amp;simg=201501200808101962163_20150120081443_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.heraldpop.com/view.php?ud=201501200808101962163_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제 승용차 사고, 가드레일 충돌…일가족 4명 숨져</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,28 +563,29 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.375" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -642,142 +646,142 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>42024</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>42038</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>42094</v>
+        <v>42134</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>42134</v>
+        <v>42339</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
-        <v>42339</v>
+        <v>42292</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>42292</v>
+        <v>42142</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>42142</v>
+        <v>42213</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
-        <v>42213</v>
+        <v>42231</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>42231</v>
+        <v>42271</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -785,7 +789,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="1">
-        <v>42271</v>
+        <v>42186</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -800,7 +804,9 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E46A8293-8AD4-40E8-8B26-25A8C1719FBC}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{7A157283-2709-44B9-82ED-6F3898C27F24}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{5FADF417-41B7-4585-A3B9-D3C2AB4E5D8B}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{737B6BF1-D263-4BCE-B1BD-E1B967C8437E}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{737B6BF1-D263-4BCE-B1BD-E1B967C8437E}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{FD3AB177-D373-4CDF-A988-5DA3125A40FF}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{D48F7040-090F-42DF-838D-07BB54D90A17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
